--- a/cuadro presupuesto.xlsx
+++ b/cuadro presupuesto.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86dfd08d096d2d59/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86dfd08d096d2d59/Adminstracion de empresas/trunk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan de inversión" sheetId="1" r:id="rId1"/>
+    <sheet name="Proyeccion de venta en unidades" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>FIJO S/.</t>
   </si>
@@ -165,6 +166,60 @@
   </si>
   <si>
     <t xml:space="preserve">   Publicidad Radio</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Mes 1</t>
+  </si>
+  <si>
+    <t>Mes 2</t>
+  </si>
+  <si>
+    <t>Mes 3</t>
+  </si>
+  <si>
+    <t>Mes 4</t>
+  </si>
+  <si>
+    <t>Mes 5</t>
+  </si>
+  <si>
+    <t>Mes 6</t>
+  </si>
+  <si>
+    <t>Mes 7</t>
+  </si>
+  <si>
+    <t>Mes 8</t>
+  </si>
+  <si>
+    <t>Mes 9</t>
+  </si>
+  <si>
+    <t>Mes 10</t>
+  </si>
+  <si>
+    <t>Mes 11</t>
+  </si>
+  <si>
+    <t>Mes 12</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDR EXT 1GB </t>
+  </si>
+  <si>
+    <t>KING USB DTSE9H/16GB</t>
+  </si>
+  <si>
+    <t>HEADSET TEROS S82 1.8MT</t>
+  </si>
+  <si>
+    <t>KB USB SP COMBO TEROS 3000</t>
   </si>
 </sst>
 </file>
@@ -172,9 +227,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="_-[$S/-280A]* #,##0.00_-;\-[$S/-280A]* #,##0.00_-;_-[$S/-280A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$S/-280A]* #,##0.00_-;\-[$S/-280A]* #,##0.00_-;_-[$S/-280A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +267,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +320,26 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1CADE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCE3F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F1FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -543,6 +639,51 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -553,11 +694,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -565,36 +705,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="2" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,71 +737,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -678,10 +752,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
@@ -692,6 +766,98 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -979,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,89 +1166,89 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="58"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="5" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="41" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="C6" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
         <f>C6*D6</f>
-        <v>1500</v>
-      </c>
-      <c r="F6" s="57"/>
+        <v>1800</v>
+      </c>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7">
-        <v>100</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="C7" s="6">
+        <v>150</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <f>C7*D7</f>
-        <v>100</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
@@ -1094,52 +1260,52 @@
       <c r="F8" s="44"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>3500</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
         <f>C9*D9</f>
         <v>3500</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1700</v>
       </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" ref="E10:E11" si="0">C10*D10</f>
         <v>1700</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1800</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
@@ -1151,36 +1317,36 @@
       <c r="F12" s="44"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>300</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
         <f>C13*D13</f>
         <v>300</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>300</v>
       </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" ref="E14:E18" si="1">C14*D14</f>
         <v>300</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="42" t="s">
@@ -1192,321 +1358,321 @@
       <c r="F15" s="44"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>500</v>
       </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>300</v>
       </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>1000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>6</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="52">
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="29">
         <f>SUM(E6:E18)</f>
-        <v>16000</v>
-      </c>
-      <c r="F19" s="48"/>
+        <v>16350</v>
+      </c>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="2:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="41" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>600</v>
       </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
         <f t="shared" ref="E21:E25" si="2">C21*D21</f>
         <v>600</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>167.22</v>
       </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18">
         <f t="shared" si="2"/>
         <v>167.22</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>150</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="22">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>300</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="22">
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F24" s="55"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>200</v>
       </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="22">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="52">
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="29">
         <f>SUM(E21:E25)</f>
         <v>1417.22</v>
       </c>
-      <c r="F26" s="53"/>
-    </row>
-    <row r="27" spans="2:6" s="4" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="33" t="s">
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="2:6" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="41" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>100000</v>
       </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="22">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="18">
         <f t="shared" ref="F29" si="3">C29*D29</f>
         <v>100000</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52">
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29">
         <f>SUM(F28:F29)</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="39" t="s">
+    <row r="31" spans="2:6" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41" t="s">
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>1000</v>
       </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
         <f>C33*D33</f>
         <v>1000</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>150</v>
       </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
         <f t="shared" ref="E34:E37" si="4">C34*D34</f>
         <v>150</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>100</v>
       </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8">
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>100</v>
       </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>30</v>
       </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8">
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="42" t="s">
@@ -1518,98 +1684,103 @@
       <c r="F38" s="44"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>850</v>
       </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7">
         <f t="shared" ref="E39:E42" si="5">C39*D39</f>
         <v>850</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="16">
         <v>300</v>
       </c>
-      <c r="D40" s="15">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8">
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="F40" s="21"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="16">
         <v>150</v>
       </c>
-      <c r="D41" s="15">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8">
+      <c r="D41" s="14">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="F41" s="21"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="16">
         <v>100</v>
       </c>
-      <c r="D42" s="15">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8">
+      <c r="D42" s="14">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="F42" s="21"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="52">
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="29">
         <f>SUM(E33:E42)</f>
         <v>2780</v>
       </c>
-      <c r="F43" s="48"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="2:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="32">
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="23">
         <f>SUM(E19+E26+E30+E43)</f>
-        <v>20197.22</v>
-      </c>
-      <c r="F44" s="31">
+        <v>20547.22</v>
+      </c>
+      <c r="F44" s="22">
         <f>SUM(F19+F26+F30+F43)</f>
         <v>100000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B30:D30"/>
@@ -1622,14 +1793,257 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B32:F32"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="15" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="60">
+        <v>3</v>
+      </c>
+      <c r="D3" s="60">
+        <v>4</v>
+      </c>
+      <c r="E3" s="60">
+        <v>7</v>
+      </c>
+      <c r="F3" s="60">
+        <v>9</v>
+      </c>
+      <c r="G3" s="60">
+        <v>5</v>
+      </c>
+      <c r="H3" s="60">
+        <v>5</v>
+      </c>
+      <c r="I3" s="60">
+        <v>3</v>
+      </c>
+      <c r="J3" s="60">
+        <v>2</v>
+      </c>
+      <c r="K3" s="60">
+        <v>7</v>
+      </c>
+      <c r="L3" s="60">
+        <v>5</v>
+      </c>
+      <c r="M3" s="60">
+        <v>11</v>
+      </c>
+      <c r="N3" s="60">
+        <v>6</v>
+      </c>
+      <c r="O3" s="61">
+        <f t="shared" ref="O3:O5" si="0">SUM(C3:N3)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="62">
+        <v>10</v>
+      </c>
+      <c r="D4" s="62">
+        <v>15</v>
+      </c>
+      <c r="E4" s="62">
+        <v>13</v>
+      </c>
+      <c r="F4" s="62">
+        <v>30</v>
+      </c>
+      <c r="G4" s="62">
+        <v>50</v>
+      </c>
+      <c r="H4" s="62">
+        <v>25</v>
+      </c>
+      <c r="I4" s="62">
+        <v>27</v>
+      </c>
+      <c r="J4" s="62">
+        <v>26</v>
+      </c>
+      <c r="K4" s="62">
+        <v>40</v>
+      </c>
+      <c r="L4" s="62">
+        <v>35</v>
+      </c>
+      <c r="M4" s="62">
+        <v>21</v>
+      </c>
+      <c r="N4" s="62">
+        <v>17</v>
+      </c>
+      <c r="O4" s="61">
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="63">
+        <v>2</v>
+      </c>
+      <c r="D5" s="63">
+        <v>5</v>
+      </c>
+      <c r="E5" s="63">
+        <v>11</v>
+      </c>
+      <c r="F5" s="63">
+        <v>9</v>
+      </c>
+      <c r="G5" s="63">
+        <v>12</v>
+      </c>
+      <c r="H5" s="63">
+        <v>8</v>
+      </c>
+      <c r="I5" s="63">
+        <v>11</v>
+      </c>
+      <c r="J5" s="63">
+        <v>14</v>
+      </c>
+      <c r="K5" s="63">
+        <v>15</v>
+      </c>
+      <c r="L5" s="63">
+        <v>13</v>
+      </c>
+      <c r="M5" s="63">
+        <v>15</v>
+      </c>
+      <c r="N5" s="63">
+        <v>12</v>
+      </c>
+      <c r="O5" s="61">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="62">
+        <v>5</v>
+      </c>
+      <c r="D6" s="62">
+        <v>4</v>
+      </c>
+      <c r="E6" s="62">
+        <v>7</v>
+      </c>
+      <c r="F6" s="62">
+        <v>10</v>
+      </c>
+      <c r="G6" s="62">
+        <v>5</v>
+      </c>
+      <c r="H6" s="62">
+        <v>6</v>
+      </c>
+      <c r="I6" s="62">
+        <v>8</v>
+      </c>
+      <c r="J6" s="62">
+        <v>25</v>
+      </c>
+      <c r="K6" s="62">
+        <v>56</v>
+      </c>
+      <c r="L6" s="62">
+        <v>41</v>
+      </c>
+      <c r="M6" s="62">
+        <v>19</v>
+      </c>
+      <c r="N6" s="62">
+        <v>21</v>
+      </c>
+      <c r="O6" s="61">
+        <f>SUM(C6:N6)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/cuadro presupuesto.xlsx
+++ b/cuadro presupuesto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86dfd08d096d2d59/Adminstracion de empresas/trunk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexs\OneDrive\Adminstracion de empresas\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -767,56 +767,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -834,30 +808,56 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,13 +1166,13 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
@@ -1184,10 +1184,10 @@
       <c r="D3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="50"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1195,11 +1195,11 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:14" s="4" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="24" t="s">
         <v>0</v>
       </c>
@@ -1208,13 +1208,13 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
@@ -1247,17 +1247,17 @@
         <v>150</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
@@ -1308,13 +1308,13 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
@@ -1349,13 +1349,13 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
@@ -1406,11 +1406,11 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="29">
         <f>SUM(E6:E18)</f>
         <v>16350</v>
@@ -1418,11 +1418,11 @@
       <c r="F19" s="25"/>
     </row>
     <row r="20" spans="2:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="24" t="s">
         <v>0</v>
       </c>
@@ -1483,14 +1483,14 @@
         <v>32</v>
       </c>
       <c r="C24" s="6">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F24" s="32"/>
     </row>
@@ -1511,23 +1511,23 @@
       <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="29">
         <f>SUM(E21:E25)</f>
-        <v>1417.22</v>
+        <v>1617.22</v>
       </c>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="2:6" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="24" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="6">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1557,27 +1557,27 @@
       <c r="E29" s="7"/>
       <c r="F29" s="18">
         <f t="shared" ref="F29" si="3">C29*D29</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29">
         <f>SUM(F28:F29)</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="31" spans="2:6" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="24" t="s">
         <v>0</v>
       </c>
@@ -1586,13 +1586,13 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
@@ -1675,13 +1675,13 @@
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
@@ -1732,55 +1732,50 @@
       <c r="F41" s="17"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="16">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D42" s="14">
         <v>1</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F42" s="17"/>
     </row>
     <row r="43" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="29">
         <f>SUM(E33:E42)</f>
-        <v>2780</v>
+        <v>2840</v>
       </c>
       <c r="F43" s="25"/>
     </row>
     <row r="44" spans="2:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="41"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="23">
         <f>SUM(E19+E26+E30+E43)</f>
-        <v>20547.22</v>
+        <v>20807.22</v>
       </c>
       <c r="F44" s="22">
         <f>SUM(F19+F26+F30+F43)</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B30:D30"/>
@@ -1794,6 +1789,11 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1816,231 +1816,231 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="O2" s="36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="37">
         <v>3</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="37">
         <v>4</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="37">
         <v>7</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="37">
         <v>9</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="37">
         <v>5</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="37">
         <v>5</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="37">
         <v>3</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="37">
         <v>2</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="37">
         <v>7</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="37">
         <v>5</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="37">
         <v>11</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="37">
         <v>6</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="38">
         <f t="shared" ref="O3:O5" si="0">SUM(C3:N3)</f>
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="39">
         <v>10</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="39">
         <v>15</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="39">
         <v>13</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="39">
         <v>30</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="39">
         <v>50</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="39">
         <v>25</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="39">
         <v>27</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="39">
         <v>26</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="39">
         <v>40</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="39">
         <v>35</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="39">
         <v>21</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="39">
         <v>17</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="38">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="40">
         <v>2</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="40">
         <v>5</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="40">
         <v>11</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="40">
         <v>9</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="40">
         <v>12</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="40">
         <v>8</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="40">
         <v>11</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="40">
         <v>14</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="40">
         <v>15</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="40">
         <v>13</v>
       </c>
-      <c r="M5" s="63">
+      <c r="M5" s="40">
         <v>15</v>
       </c>
-      <c r="N5" s="63">
+      <c r="N5" s="40">
         <v>12</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="38">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="39">
         <v>5</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="39">
         <v>4</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="39">
         <v>7</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="39">
         <v>10</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="39">
         <v>5</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="39">
         <v>6</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="39">
         <v>8</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="39">
         <v>25</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="39">
         <v>56</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="39">
         <v>41</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="39">
         <v>19</v>
       </c>
-      <c r="N6" s="62">
+      <c r="N6" s="39">
         <v>21</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="38">
         <f>SUM(C6:N6)</f>
         <v>207</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
+      <c r="B8" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
